--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_13_37.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_13_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3532899.870626024</v>
+        <v>3530564.759424042</v>
       </c>
     </row>
     <row r="7">
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>35.95245435214181</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -677,7 +677,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>61.2089511619852</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,25 +817,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>56.30830983498225</v>
       </c>
       <c r="I4" t="n">
-        <v>6.866060776843701</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -902,10 +902,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>169.0477797924954</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>411.547702772954</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,10 +947,10 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>138.4227759882135</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>56.01246561959189</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>41.13708238253194</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>360.109570711116</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>129.539868031607</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,7 +1291,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>120.6353666620237</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>133.0668145221524</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1354,10 +1354,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710094</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>102.1557845699822</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>21.90286287505374</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1616,13 +1616,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417126</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>109.0404882242259</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>73.56194264363261</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1999,16 +1999,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>136.5667167289879</v>
       </c>
       <c r="E19" t="n">
-        <v>129.0096827405969</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2017,10 +2017,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2135,7 +2135,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2251,13 +2251,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>126.9927435506637</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>55.52079624060465</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>1.799772605717519</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>125.2851635392057</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187887</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>101.6969570046979</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>132.6315337216692</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2795,7 +2795,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206849</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2956,19 +2956,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>7.613741235233674</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>191.6604102493273</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,10 +3187,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3199,10 +3199,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>54.3264904208969</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>216.5793400412183</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3421,13 +3421,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3436,13 +3436,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>140.7158229532361</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3484,10 +3484,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>176.5196562849271</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>102.1557845699822</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S40" t="n">
-        <v>125.2851635392057</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3907,16 +3907,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>132.6315337216692</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>46.13809394730928</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4144,7 +4144,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>55.52079624060473</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>240.0633098883609</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,13 +4304,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>844.329830759459</v>
+        <v>880.6454412161679</v>
       </c>
       <c r="C2" t="n">
-        <v>844.329830759459</v>
+        <v>880.6454412161679</v>
       </c>
       <c r="D2" t="n">
-        <v>844.329830759459</v>
+        <v>880.6454412161679</v>
       </c>
       <c r="E2" t="n">
         <v>844.329830759459</v>
@@ -4328,16 +4328,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2500.512105004211</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2291.766463610035</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2291.766463610035</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1960.703576266465</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1607.934920996351</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X2" t="n">
-        <v>1234.469162735271</v>
+        <v>1270.78477319198</v>
       </c>
       <c r="Y2" t="n">
-        <v>844.329830759459</v>
+        <v>880.6454412161679</v>
       </c>
     </row>
     <row r="3">
@@ -4389,13 +4389,13 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
@@ -4407,22 +4407,22 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M3" t="n">
-        <v>956.284402521753</v>
+        <v>956.2844025217532</v>
       </c>
       <c r="N3" t="n">
-        <v>1590.463386300792</v>
+        <v>1565.661695681274</v>
       </c>
       <c r="O3" t="n">
-        <v>1922.533821476953</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
         <v>2447.023413292609</v>
@@ -4440,7 +4440,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>819.8272448149623</v>
+        <v>445.0465148290276</v>
       </c>
       <c r="C4" t="n">
-        <v>819.8272448149623</v>
+        <v>276.1103319011207</v>
       </c>
       <c r="D4" t="n">
-        <v>669.7106054026266</v>
+        <v>276.1103319011207</v>
       </c>
       <c r="E4" t="n">
-        <v>521.7975118202335</v>
+        <v>276.1103319011207</v>
       </c>
       <c r="F4" t="n">
-        <v>374.9075643223231</v>
+        <v>276.1103319011207</v>
       </c>
       <c r="G4" t="n">
-        <v>206.9210996306017</v>
+        <v>108.1238672093993</v>
       </c>
       <c r="H4" t="n">
-        <v>58.18220149410786</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.23396574994</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>1337.23396574994</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>1337.23396574994</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V4" t="n">
-        <v>1337.23396574994</v>
+        <v>673.036065727045</v>
       </c>
       <c r="W4" t="n">
-        <v>1047.81679571298</v>
+        <v>673.036065727045</v>
       </c>
       <c r="X4" t="n">
-        <v>819.8272448149623</v>
+        <v>445.0465148290276</v>
       </c>
       <c r="Y4" t="n">
-        <v>819.8272448149623</v>
+        <v>445.0465148290276</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1842.294639468328</v>
+        <v>1267.498902304191</v>
       </c>
       <c r="C5" t="n">
-        <v>1473.332122527917</v>
+        <v>898.5363853637798</v>
       </c>
       <c r="D5" t="n">
-        <v>1115.066423921166</v>
+        <v>540.2706867570292</v>
       </c>
       <c r="E5" t="n">
-        <v>944.3110907974335</v>
+        <v>540.2706867570292</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078259</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G5" t="n">
         <v>117.6204357321147</v>
@@ -4562,16 +4562,16 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4595,22 +4595,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2228.89447953245</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V5" t="n">
-        <v>2228.89447953245</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="W5" t="n">
-        <v>2228.89447953245</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="X5" t="n">
-        <v>2228.89447953245</v>
+        <v>2044.238074344125</v>
       </c>
       <c r="Y5" t="n">
-        <v>2228.89447953245</v>
+        <v>1654.098742368313</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625329</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M6" t="n">
-        <v>956.284402521753</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1565.661695681274</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1087.683159487371</v>
+        <v>444.7476822882293</v>
       </c>
       <c r="C7" t="n">
-        <v>918.7469765594642</v>
+        <v>275.8114993603224</v>
       </c>
       <c r="D7" t="n">
-        <v>768.6303371471284</v>
+        <v>275.8114993603224</v>
       </c>
       <c r="E7" t="n">
-        <v>620.7172435647353</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F7" t="n">
-        <v>473.8272960668249</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1533.862713590079</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T7" t="n">
-        <v>1310.884232784815</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U7" t="n">
-        <v>1310.884232784815</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="V7" t="n">
-        <v>1310.884232784815</v>
+        <v>962.1544032232072</v>
       </c>
       <c r="W7" t="n">
-        <v>1310.884232784815</v>
+        <v>672.7372331862466</v>
       </c>
       <c r="X7" t="n">
-        <v>1269.331624317611</v>
+        <v>444.7476822882293</v>
       </c>
       <c r="Y7" t="n">
-        <v>1269.331624317611</v>
+        <v>444.7476822882293</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1238.038871968309</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C8" t="n">
-        <v>869.0763550278978</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>869.0763550278978</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>483.2881024296535</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5410613073142</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883008</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539437</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.243802269323</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>2014.778044008243</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="Y8" t="n">
-        <v>1624.638712032431</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="9">
@@ -4872,19 +4872,19 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
         <v>765.151745215813</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>550.0410834832817</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="C10" t="n">
-        <v>381.1049005553748</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="D10" t="n">
-        <v>381.1049005553748</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1792.883624328743</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1503.780757454386</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1249.096269248499</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>959.6790992115388</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X10" t="n">
-        <v>731.6895483135214</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="Y10" t="n">
-        <v>731.6895483135214</v>
+        <v>370.0144869816389</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,22 +5027,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332388</v>
@@ -5054,37 +5054,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797191</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637308</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890283</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.11872044489</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2495.978408795858</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>241.729756630365</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>93.81666304797191</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797191</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797191</v>
+        <v>198.027470314254</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5252,31 +5252,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5285,43 +5285,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.5840502527391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803939</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516146</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167374</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793926</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348533</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1031.26032167505</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C16" t="n">
-        <v>862.3241387471435</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D16" t="n">
-        <v>712.2074993348077</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E16" t="n">
-        <v>564.2944057524146</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>417.4044582545042</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>250.2083589693842</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.70136564882</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1433.70136564882</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y16" t="n">
-        <v>1212.90878650529</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="17">
@@ -5492,70 +5492,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192565</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797191</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>119.2902967703778</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969299</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7541388327652</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C19" t="n">
-        <v>594.8179559048583</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D19" t="n">
-        <v>594.8179559048583</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557705</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5680,7 +5680,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570818</v>
@@ -5689,34 +5689,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.4026036630049</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,52 +5738,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273909</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>746.8882603249853</v>
       </c>
       <c r="M21" t="n">
-        <v>1103.652278938886</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N21" t="n">
-        <v>1731.250242493492</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>707.672526468518</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="C22" t="n">
-        <v>538.7363435406111</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282754</v>
+        <v>766.1780053015058</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458823</v>
+        <v>618.2649117191127</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797191</v>
+        <v>471.3749642212023</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797191</v>
+        <v>304.1788649360822</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5932,28 +5932,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>889.3209912987577</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192508</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111709</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="24">
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273909</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273909</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>429.5088224239597</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>924.8344286397185</v>
+        <v>589.1422692637309</v>
       </c>
       <c r="M24" t="n">
-        <v>1522.21291626627</v>
+        <v>1186.520756890283</v>
       </c>
       <c r="N24" t="n">
-        <v>2149.810879820877</v>
+        <v>1814.11872044489</v>
       </c>
       <c r="O24" t="n">
-        <v>2149.810879820877</v>
+        <v>2366.028450684178</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2366.028450684178</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>789.7592298206044</v>
+        <v>513.8536007400726</v>
       </c>
       <c r="C25" t="n">
-        <v>620.8230468926976</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="D25" t="n">
-        <v>470.7064074803618</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="E25" t="n">
-        <v>322.7933138979687</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F25" t="n">
-        <v>175.9033664000583</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6151,46 +6151,46 @@
         <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N25" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T25" t="n">
-        <v>2253.366709591041</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U25" t="n">
-        <v>1964.291482935239</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X25" t="n">
-        <v>1192.200273794374</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y25" t="n">
-        <v>971.4076946508442</v>
+        <v>695.5020655703123</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F26" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168634</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075815</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332388</v>
@@ -6242,34 +6242,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L27" t="n">
-        <v>579.1554649516144</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1176.533952578166</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446605</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C28" t="n">
-        <v>680.448174698413</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="D28" t="n">
-        <v>530.3315352860773</v>
+        <v>363.7369613277364</v>
       </c>
       <c r="E28" t="n">
-        <v>382.4184417036842</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6391,7 +6391,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N28" t="n">
         <v>1665.560112570818</v>
@@ -6400,34 +6400,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2312.991837396757</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>2023.916610740955</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1769.232122535068</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1251.82540160009</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y28" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168624</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075825</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.89852635594</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="N30" t="n">
-        <v>1670.092171589158</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>789.7592298206043</v>
+        <v>734.6461798836023</v>
       </c>
       <c r="C31" t="n">
-        <v>620.8230468926974</v>
+        <v>565.7099969556954</v>
       </c>
       <c r="D31" t="n">
-        <v>470.7064074803617</v>
+        <v>415.5933575433596</v>
       </c>
       <c r="E31" t="n">
-        <v>322.7933138979686</v>
+        <v>415.5933575433596</v>
       </c>
       <c r="F31" t="n">
-        <v>175.9033664000583</v>
+        <v>268.7034100454492</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>101.5073107603292</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6628,7 +6628,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N31" t="n">
         <v>1665.560112570818</v>
@@ -6637,34 +6637,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2253.366709591041</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1964.291482935239</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1192.200273794374</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y31" t="n">
-        <v>971.4076946508441</v>
+        <v>916.294644713842</v>
       </c>
     </row>
     <row r="32">
@@ -6686,25 +6686,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1025.119922845745</v>
       </c>
       <c r="N33" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>707.672526468518</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="C34" t="n">
-        <v>538.7363435406111</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="D34" t="n">
-        <v>388.6197041282753</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458822</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6865,7 +6865,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N34" t="n">
         <v>1665.560112570818</v>
@@ -6874,34 +6874,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2392.08784073087</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S34" t="n">
-        <v>2209.233006385774</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1989.631541408715</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1700.556314752913</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1445.871826547026</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1156.454656510065</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>928.4651056120481</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y34" t="n">
-        <v>707.672526468518</v>
+        <v>697.5276345711973</v>
       </c>
     </row>
     <row r="35">
@@ -6914,70 +6914,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168622</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,25 +7008,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M36" t="n">
-        <v>1074.481071167373</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="O36" t="n">
         <v>1859.536823237711</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>874.8686257536381</v>
+        <v>923.4916164683292</v>
       </c>
       <c r="C37" t="n">
-        <v>705.9324428257312</v>
+        <v>754.5554335404223</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>754.5554335404223</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>606.6423399580292</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>459.7523924601188</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7102,7 +7102,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N37" t="n">
         <v>1665.560112570818</v>
@@ -7111,34 +7111,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1277.309669727408</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y37" t="n">
-        <v>1056.517090583878</v>
+        <v>923.4916164683292</v>
       </c>
     </row>
     <row r="38">
@@ -7151,28 +7151,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075809</v>
@@ -7181,40 +7181,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,25 +7245,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>429.5088224239598</v>
       </c>
       <c r="L39" t="n">
-        <v>924.8344286397185</v>
+        <v>924.8344286397187</v>
       </c>
       <c r="M39" t="n">
-        <v>1522.21291626627</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
         <v>1859.536823237711</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>789.7592298206043</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C40" t="n">
-        <v>620.8230468926974</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D40" t="n">
-        <v>470.7064074803617</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E40" t="n">
-        <v>322.7933138979686</v>
+        <v>197.0043242297721</v>
       </c>
       <c r="F40" t="n">
-        <v>175.9033664000582</v>
+        <v>197.0043242297721</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782958</v>
@@ -7339,7 +7339,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N40" t="n">
         <v>1665.560112570818</v>
@@ -7348,34 +7348,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S40" t="n">
-        <v>2253.366709591041</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2253.366709591041</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1964.291482935239</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1192.200273794374</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y40" t="n">
-        <v>971.4076946508441</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="41">
@@ -7385,37 +7385,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192383</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L42" t="n">
-        <v>429.5088224239596</v>
+        <v>1058.18352155162</v>
       </c>
       <c r="M42" t="n">
-        <v>1026.887310050512</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>983.3556038098242</v>
+        <v>916.294644713842</v>
       </c>
       <c r="C43" t="n">
-        <v>814.4194208819173</v>
+        <v>747.3584617859351</v>
       </c>
       <c r="D43" t="n">
-        <v>664.3027814695815</v>
+        <v>597.2418223735993</v>
       </c>
       <c r="E43" t="n">
-        <v>516.3896878871884</v>
+        <v>449.3287287912062</v>
       </c>
       <c r="F43" t="n">
-        <v>369.499740389278</v>
+        <v>449.3287287912062</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>282.1326295060862</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>140.4207983482843</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7576,7 +7576,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N43" t="n">
         <v>1665.560112570818</v>
@@ -7585,34 +7585,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1903.203368718572</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1385.796647783594</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y43" t="n">
-        <v>1165.004068640064</v>
+        <v>916.294644713842</v>
       </c>
     </row>
     <row r="44">
@@ -7634,25 +7634,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803938</v>
+        <v>429.5088224239598</v>
       </c>
       <c r="L45" t="n">
-        <v>671.2000270096656</v>
+        <v>924.8344286397187</v>
       </c>
       <c r="M45" t="n">
-        <v>1268.578514636218</v>
+        <v>924.8344286397187</v>
       </c>
       <c r="N45" t="n">
-        <v>1896.176478190824</v>
+        <v>1552.432392194326</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190824</v>
+        <v>2104.342122433613</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>763.7541388327652</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>594.8179559048583</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>444.7013164925226</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>296.7882229101294</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>149.8982754122191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>149.8982754122191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>149.8982754122191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7813,7 +7813,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N46" t="n">
         <v>1665.560112570818</v>
@@ -7822,34 +7822,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q46" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704552</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>1166.195182806535</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>945.4026036630049</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -8067,19 +8067,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>249.387732507165</v>
+        <v>224.3355197601774</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>305.1601501039158</v>
       </c>
       <c r="P3" t="n">
-        <v>280.1079373569283</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8298,25 +8298,25 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>319.4183821282434</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>224.3355197601772</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>305.1601501039159</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -10595,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>-1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>46.45968844823017</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>118.3918499711701</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>58.20633287440191</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>66.73277020259125</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23887,16 +23887,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>12.04875628922446</v>
       </c>
       <c r="E19" t="n">
-        <v>17.42427990597227</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>13.30196929556013</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>125.5054897610399</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24367,16 +24367,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>144.6341900408516</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24412,10 +24412,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>92.12028678808259</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>44.73700564187124</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>84.77391660561906</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>132.6809716109902</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>25.74504007796097</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25075,10 +25075,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25087,13 +25087,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>12.04875628922476</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>2.005313310876517</v>
       </c>
     </row>
     <row r="35">
@@ -25309,13 +25309,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25324,13 +25324,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>24.80831533903276</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25372,10 +25372,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>110.0033420516639</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>63.36835372228661</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,10 +25597,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>55.74112246243892</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25795,16 +25795,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>32.89260457059964</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>35.12774237125623</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26032,7 +26032,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -26041,7 +26041,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>25.74504007796079</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>46.45968844823005</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>673825.2162894153</v>
+        <v>673825.2162894151</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>673825.2162894153</v>
+        <v>673825.2162894151</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>673825.2162894151</v>
+        <v>673825.2162894153</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>673825.2162894151</v>
+        <v>673825.2162894153</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>673825.2162894153</v>
+        <v>673825.2162894151</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>673825.2162894154</v>
+        <v>673825.2162894153</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>673825.2162894153</v>
+        <v>673825.2162894151</v>
       </c>
     </row>
   </sheetData>
@@ -26311,37 +26311,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244625</v>
+        <v>759463.6371244624</v>
       </c>
       <c r="C2" t="n">
         <v>759463.6371244625</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244622</v>
       </c>
       <c r="E2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="F2" t="n">
         <v>746610.6047132555</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="H2" t="n">
         <v>746610.6047132554</v>
       </c>
-      <c r="G2" t="n">
-        <v>746610.6047132558</v>
-      </c>
-      <c r="H2" t="n">
-        <v>746610.6047132553</v>
-      </c>
       <c r="I2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132557</v>
       </c>
       <c r="J2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132557</v>
       </c>
       <c r="K2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="L2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132555</v>
       </c>
       <c r="M2" t="n">
         <v>746610.6047132554</v>
@@ -26350,7 +26350,7 @@
         <v>746610.6047132554</v>
       </c>
       <c r="O2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="P2" t="n">
         <v>746610.6047132554</v>
@@ -26363,37 +26363,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.140440338</v>
+        <v>192627.1404403377</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.42310613632435e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099828</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819071</v>
+        <v>48293.97000819054</v>
       </c>
       <c r="M3" t="n">
         <v>85055.0279355119</v>
@@ -26421,37 +26421,37 @@
         <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309554</v>
+        <v>87914.29116309562</v>
       </c>
       <c r="E4" t="n">
-        <v>8727.256391744202</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="F4" t="n">
-        <v>8727.256391744231</v>
+        <v>8727.256391744297</v>
       </c>
       <c r="G4" t="n">
-        <v>8727.256391744253</v>
+        <v>8727.256391744308</v>
       </c>
       <c r="H4" t="n">
-        <v>8727.256391744253</v>
+        <v>8727.256391744295</v>
       </c>
       <c r="I4" t="n">
+        <v>8727.256391744286</v>
+      </c>
+      <c r="J4" t="n">
+        <v>8727.256391744188</v>
+      </c>
+      <c r="K4" t="n">
+        <v>8727.256391744195</v>
+      </c>
+      <c r="L4" t="n">
+        <v>8727.256391744282</v>
+      </c>
+      <c r="M4" t="n">
+        <v>8727.256391744197</v>
+      </c>
+      <c r="N4" t="n">
         <v>8727.256391744284</v>
-      </c>
-      <c r="J4" t="n">
-        <v>8727.256391744284</v>
-      </c>
-      <c r="K4" t="n">
-        <v>8727.256391744284</v>
-      </c>
-      <c r="L4" t="n">
-        <v>8727.256391744284</v>
-      </c>
-      <c r="M4" t="n">
-        <v>8727.256391744268</v>
-      </c>
-      <c r="N4" t="n">
-        <v>8727.256391744242</v>
       </c>
       <c r="O4" t="n">
         <v>8727.256391744284</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
@@ -26476,13 +26476,13 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
         <v>101122.5298239071</v>
@@ -26491,10 +26491,10 @@
         <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="K5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="L5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-583748.0558682848</v>
+        <v>-583748.0558682854</v>
       </c>
       <c r="C6" t="n">
         <v>531003.7277076347</v>
       </c>
       <c r="D6" t="n">
-        <v>370988.2649596357</v>
+        <v>370988.2649596356</v>
       </c>
       <c r="E6" t="n">
-        <v>311348.3566902486</v>
+        <v>311313.6187648131</v>
       </c>
       <c r="F6" t="n">
-        <v>636760.818497604</v>
+        <v>636726.0805721686</v>
       </c>
       <c r="G6" t="n">
-        <v>636760.8184976043</v>
+        <v>636726.0805721679</v>
       </c>
       <c r="H6" t="n">
-        <v>636760.818497604</v>
+        <v>636726.0805721685</v>
       </c>
       <c r="I6" t="n">
-        <v>636760.818497604</v>
+        <v>636726.0805721683</v>
       </c>
       <c r="J6" t="n">
-        <v>469155.6406876215</v>
+        <v>469120.9027621857</v>
       </c>
       <c r="K6" t="n">
-        <v>636760.818497604</v>
+        <v>636726.0805721682</v>
       </c>
       <c r="L6" t="n">
-        <v>588466.8484894132</v>
+        <v>588432.1105639781</v>
       </c>
       <c r="M6" t="n">
-        <v>551705.7905620922</v>
+        <v>551671.0526366564</v>
       </c>
       <c r="N6" t="n">
-        <v>636760.8184976041</v>
+        <v>636726.0805721683</v>
       </c>
       <c r="O6" t="n">
-        <v>636760.8184976039</v>
+        <v>636726.0805721683</v>
       </c>
       <c r="P6" t="n">
-        <v>636760.8184976041</v>
+        <v>636726.0805721683</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26790,25 +26790,25 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099649</v>
@@ -26820,10 +26820,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26957,28 +26957,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.711808475759</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000396</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022531</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,7 +27385,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>345.97791572012</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27427,19 +27427,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>62.24326423680917</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27537,25 +27537,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>90.94319932014659</v>
       </c>
       <c r="I4" t="n">
-        <v>97.93053442705688</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27622,10 +27622,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>212.8825902797664</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27667,10 +27667,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>231.3083246902555</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>90.42149702697728</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,13 +27831,13 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>184.5725730065052</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>46.76647503059547</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>240.1912326468621</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28011,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,10 +28020,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>24.78568136090759</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>86.48213475401676</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.487140834762211e-12</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28336,13 +28336,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>-6.536993168992922e-13</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-1.789547823101709e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29515,7 +29515,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>-1.989519660128281e-12</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30037,7 +30037,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,34 +31370,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>653.3850396373766</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>160.6314956130963</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,34 +32066,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>641.2555750770852</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558004</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32266,7 +32266,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32315,31 +32315,31 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338195</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.87657862147</v>
+        <v>346.9084613860364</v>
       </c>
       <c r="Q18" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32406,7 +32406,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32479,7 +32479,7 @@
         <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175661</v>
       </c>
       <c r="N20" t="n">
         <v>981.2715114159428</v>
@@ -32546,34 +32546,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>460.9249101897659</v>
       </c>
       <c r="M21" t="n">
-        <v>171.5999003578894</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S23" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,43 +32777,43 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P24" t="n">
-        <v>504.2882996232035</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>291.8940795642884</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H25" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796262</v>
@@ -32871,31 +32871,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T25" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U25" t="n">
         <v>0.1345549672467222</v>
@@ -32935,40 +32935,40 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S26" t="n">
         <v>125.3175546292901</v>
@@ -32977,7 +32977,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,37 +33020,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N27" t="n">
-        <v>263.7590256391492</v>
+        <v>230.1272937575224</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H28" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796262</v>
@@ -33117,7 +33117,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
@@ -33129,7 +33129,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33172,40 +33172,40 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S29" t="n">
         <v>125.3175546292901</v>
@@ -33214,7 +33214,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33260,34 +33260,34 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O30" t="n">
-        <v>370.9642309107744</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>316.3837382263848</v>
       </c>
       <c r="Q30" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H31" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796262</v>
@@ -33354,7 +33354,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
@@ -33366,7 +33366,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33409,40 +33409,40 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663262</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S32" t="n">
         <v>125.3175546292901</v>
@@ -33451,7 +33451,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33494,37 +33494,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>416.7024900153323</v>
       </c>
       <c r="O33" t="n">
-        <v>369.1789913099994</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q33" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H34" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796262</v>
@@ -33591,7 +33591,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
@@ -33603,7 +33603,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33646,40 +33646,40 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S35" t="n">
         <v>125.3175546292901</v>
@@ -33688,7 +33688,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33731,28 +33731,28 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N36" t="n">
-        <v>366.8427442359099</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>485.11270320829</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q36" t="n">
         <v>375.5996128485291</v>
@@ -33761,7 +33761,7 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H37" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796262</v>
@@ -33828,7 +33828,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
@@ -33840,7 +33840,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,40 +33883,40 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S38" t="n">
         <v>125.3175546292901</v>
@@ -33925,7 +33925,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33974,22 +33974,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>528.7932908500031</v>
       </c>
       <c r="N39" t="n">
-        <v>472.0729312464047</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q39" t="n">
         <v>375.5996128485291</v>
@@ -33998,7 +33998,7 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H40" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796262</v>
@@ -34065,7 +34065,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
@@ -34077,7 +34077,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,40 +34120,40 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.015579806721</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S41" t="n">
         <v>125.3175546292901</v>
@@ -34162,7 +34162,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34208,25 +34208,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>622.4211036182639</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N42" t="n">
-        <v>414.9172504145579</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.5996128485291</v>
@@ -34235,7 +34235,7 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H43" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796262</v>
@@ -34302,7 +34302,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,40 +34357,40 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817556</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S44" t="n">
         <v>125.3175546292901</v>
@@ -34399,7 +34399,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34445,34 +34445,34 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L45" t="n">
-        <v>568.8264345569165</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>314.5984986256099</v>
       </c>
       <c r="Q45" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H46" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796262</v>
@@ -34539,7 +34539,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P46" t="n">
         <v>298.3532140417315</v>
@@ -34551,7 +34551,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
+        <v>615.5326193530514</v>
+      </c>
+      <c r="O3" t="n">
         <v>640.5848321000389</v>
       </c>
-      <c r="O3" t="n">
-        <v>335.424681996123</v>
-      </c>
       <c r="P3" t="n">
-        <v>529.7874664804606</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>617.0987427660937</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>615.5326193530511</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>640.5848321000389</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>510.7887951929322</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>20.64972152707474</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,28 +35720,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="O15" t="n">
-        <v>256.165419911356</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394538</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071398</v>
+        <v>212.9340539717061</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36051,7 +36051,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36127,7 +36127,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193518</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>322.3705304098917</v>
       </c>
       <c r="M21" t="n">
-        <v>29.46586643587111</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P24" t="n">
-        <v>370.3138922088733</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>151.9123054782669</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789219</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,25 +36513,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K25" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q25" t="n">
         <v>120.4022572998984</v>
@@ -36589,31 +36589,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902405</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N27" t="n">
-        <v>132.4173135558158</v>
+        <v>98.78558167418906</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K28" t="n">
         <v>264.332588409635</v>
@@ -36762,7 +36762,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O28" t="n">
         <v>373.2618997060455</v>
@@ -36826,31 +36826,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902405</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O30" t="n">
-        <v>228.3679864663299</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>182.4093308120545</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K31" t="n">
         <v>264.332588409635</v>
@@ -36999,7 +36999,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O31" t="n">
         <v>373.2618997060455</v>
@@ -37063,31 +37063,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396405</v>
+        <v>285.7087110396399</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902405</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>285.360777931999</v>
       </c>
       <c r="O33" t="n">
-        <v>226.582746865555</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K34" t="n">
         <v>264.332588409635</v>
@@ -37236,7 +37236,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O34" t="n">
         <v>373.2618997060455</v>
@@ -37300,31 +37300,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902405</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N36" t="n">
-        <v>235.5010321525766</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>342.5164587638456</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K37" t="n">
         <v>264.332588409635</v>
@@ -37473,7 +37473,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O37" t="n">
         <v>373.2618997060455</v>
@@ -37537,31 +37537,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902405</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>386.6592569279849</v>
       </c>
       <c r="N39" t="n">
-        <v>340.7312191630714</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K40" t="n">
         <v>264.332588409635</v>
@@ -37710,7 +37710,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O40" t="n">
         <v>373.2618997060455</v>
@@ -37774,31 +37774,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236315111</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902405</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>483.8667238383897</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N42" t="n">
-        <v>283.5755383312245</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K43" t="n">
         <v>264.332588409635</v>
@@ -37947,7 +37947,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O43" t="n">
         <v>373.2618997060455</v>
@@ -38011,31 +38011,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396405</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036775</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902405</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L45" t="n">
-        <v>430.2720547770423</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>180.6240912112796</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K46" t="n">
         <v>264.332588409635</v>
@@ -38184,7 +38184,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O46" t="n">
         <v>373.2618997060455</v>
